--- a/ele.xlsx
+++ b/ele.xlsx
@@ -365,7 +365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -629,6 +629,326 @@
         </is>
       </c>
       <c r="E14" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>怜子自甘心ღ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>高级灰</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>嘿然</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>chaos</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>walter</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>发起人1号订餐人</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12.64</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>怜子自甘心ღ</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>高级灰</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>嘿然</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>chaos</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>walter</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>laughing</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>发起人1号订餐人</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>韩小松</t>
         </is>
@@ -645,7 +965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -684,6 +1004,36 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>118.84</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23/10/2019</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>115.84</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>韩小松</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
